--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Calr-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Calr-Itgav.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>99.883077</v>
+        <v>39.41161066666667</v>
       </c>
       <c r="H2">
-        <v>299.649231</v>
+        <v>118.234832</v>
       </c>
       <c r="I2">
-        <v>0.3917580942718377</v>
+        <v>0.2026411830173254</v>
       </c>
       <c r="J2">
-        <v>0.3917580942718377</v>
+        <v>0.2026411830173254</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.09934133333334</v>
+        <v>3.759736666666667</v>
       </c>
       <c r="N2">
-        <v>63.29802400000001</v>
+        <v>11.27921</v>
       </c>
       <c r="O2">
-        <v>0.2917236204149438</v>
+        <v>0.0683751702595819</v>
       </c>
       <c r="P2">
-        <v>0.2917236204149438</v>
+        <v>0.06837517025958188</v>
       </c>
       <c r="Q2">
-        <v>2107.467135046616</v>
+        <v>148.1772777158578</v>
       </c>
       <c r="R2">
-        <v>18967.20421541954</v>
+        <v>1333.59549944272</v>
       </c>
       <c r="S2">
-        <v>0.1142850895878393</v>
+        <v>0.01385562539041272</v>
       </c>
       <c r="T2">
-        <v>0.1142850895878394</v>
+        <v>0.01385562539041271</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>99.883077</v>
+        <v>39.41161066666667</v>
       </c>
       <c r="H3">
-        <v>299.649231</v>
+        <v>118.234832</v>
       </c>
       <c r="I3">
-        <v>0.3917580942718377</v>
+        <v>0.2026411830173254</v>
       </c>
       <c r="J3">
-        <v>0.3917580942718377</v>
+        <v>0.2026411830173254</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>107.458313</v>
       </c>
       <c r="O3">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294648</v>
       </c>
       <c r="P3">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294647</v>
       </c>
       <c r="Q3">
-        <v>3577.755650556367</v>
+        <v>1411.701731617602</v>
       </c>
       <c r="R3">
-        <v>32199.8008550073</v>
+        <v>12705.31558455842</v>
       </c>
       <c r="S3">
-        <v>0.1940168452677619</v>
+        <v>0.1320041146510897</v>
       </c>
       <c r="T3">
-        <v>0.1940168452677619</v>
+        <v>0.1320041146510897</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>99.883077</v>
+        <v>39.41161066666667</v>
       </c>
       <c r="H4">
-        <v>299.649231</v>
+        <v>118.234832</v>
       </c>
       <c r="I4">
-        <v>0.3917580942718377</v>
+        <v>0.2026411830173254</v>
       </c>
       <c r="J4">
-        <v>0.3917580942718377</v>
+        <v>0.2026411830173254</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>46.22309</v>
       </c>
       <c r="O4">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="P4">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="Q4">
-        <v>1538.96815254931</v>
+        <v>607.2421422967644</v>
       </c>
       <c r="R4">
-        <v>13850.71337294379</v>
+        <v>5465.17928067088</v>
       </c>
       <c r="S4">
-        <v>0.08345615941623644</v>
+        <v>0.05678144297582298</v>
       </c>
       <c r="T4">
-        <v>0.08345615941623646</v>
+        <v>0.05678144297582297</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>372.048424</v>
       </c>
       <c r="I5">
-        <v>0.4864119993789693</v>
+        <v>0.6376490878685519</v>
       </c>
       <c r="J5">
-        <v>0.4864119993789694</v>
+        <v>0.6376490878685519</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.09934133333334</v>
+        <v>3.759736666666667</v>
       </c>
       <c r="N5">
-        <v>63.29802400000001</v>
+        <v>11.27921</v>
       </c>
       <c r="O5">
-        <v>0.2917236204149438</v>
+        <v>0.0683751702595819</v>
       </c>
       <c r="P5">
-        <v>0.2917236204149438</v>
+        <v>0.06837517025958188</v>
       </c>
       <c r="Q5">
-        <v>2616.658896834909</v>
+        <v>466.2680338294489</v>
       </c>
       <c r="R5">
-        <v>23549.93007151418</v>
+        <v>4196.41230446504</v>
       </c>
       <c r="S5">
-        <v>0.1418978694721043</v>
+        <v>0.04359936494887933</v>
       </c>
       <c r="T5">
-        <v>0.1418978694721044</v>
+        <v>0.04359936494887932</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>372.048424</v>
       </c>
       <c r="I6">
-        <v>0.4864119993789693</v>
+        <v>0.6376490878685519</v>
       </c>
       <c r="J6">
-        <v>0.4864119993789694</v>
+        <v>0.6376490878685519</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>107.458313</v>
       </c>
       <c r="O6">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294648</v>
       </c>
       <c r="P6">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294647</v>
       </c>
       <c r="Q6">
         <v>4442.188444149857</v>
@@ -818,10 +818,10 @@
         <v>39979.69599734872</v>
       </c>
       <c r="S6">
-        <v>0.2408938653719511</v>
+        <v>0.4153760950703024</v>
       </c>
       <c r="T6">
-        <v>0.2408938653719512</v>
+        <v>0.4153760950703023</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>372.048424</v>
       </c>
       <c r="I7">
-        <v>0.4864119993789693</v>
+        <v>0.6376490878685519</v>
       </c>
       <c r="J7">
-        <v>0.4864119993789694</v>
+        <v>0.6376490878685519</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>46.22309</v>
       </c>
       <c r="O7">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="P7">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="Q7">
         <v>1910.803087434462</v>
@@ -880,10 +880,10 @@
         <v>17197.22778691016</v>
       </c>
       <c r="S7">
-        <v>0.1036202645349139</v>
+        <v>0.1786736278493702</v>
       </c>
       <c r="T7">
-        <v>0.1036202645349139</v>
+        <v>0.1786736278493702</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>93.18566300000001</v>
       </c>
       <c r="I8">
-        <v>0.121829906349193</v>
+        <v>0.1597097291141227</v>
       </c>
       <c r="J8">
-        <v>0.121829906349193</v>
+        <v>0.1597097291141227</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.09934133333334</v>
+        <v>3.759736666666667</v>
       </c>
       <c r="N8">
-        <v>63.29802400000001</v>
+        <v>11.27921</v>
       </c>
       <c r="O8">
-        <v>0.2917236204149438</v>
+        <v>0.0683751702595819</v>
       </c>
       <c r="P8">
-        <v>0.2917236204149438</v>
+        <v>0.06837517025958188</v>
       </c>
       <c r="Q8">
-        <v>655.3853703366569</v>
+        <v>116.7845179962478</v>
       </c>
       <c r="R8">
-        <v>5898.468333029913</v>
+        <v>1051.06066196623</v>
       </c>
       <c r="S8">
-        <v>0.03554066135500012</v>
+        <v>0.01092017992028984</v>
       </c>
       <c r="T8">
-        <v>0.03554066135500013</v>
+        <v>0.01092017992028984</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>93.18566300000001</v>
       </c>
       <c r="I9">
-        <v>0.121829906349193</v>
+        <v>0.1597097291141227</v>
       </c>
       <c r="J9">
-        <v>0.121829906349193</v>
+        <v>0.1597097291141227</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>107.458313</v>
       </c>
       <c r="O9">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294648</v>
       </c>
       <c r="P9">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294647</v>
       </c>
       <c r="Q9">
         <v>1112.619349085169</v>
@@ -1004,10 +1004,10 @@
         <v>10013.57414176652</v>
       </c>
       <c r="S9">
-        <v>0.06033584100686314</v>
+        <v>0.1040377927080727</v>
       </c>
       <c r="T9">
-        <v>0.06033584100686316</v>
+        <v>0.1040377927080727</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>93.18566300000001</v>
       </c>
       <c r="I10">
-        <v>0.121829906349193</v>
+        <v>0.1597097291141227</v>
       </c>
       <c r="J10">
-        <v>0.121829906349193</v>
+        <v>0.1597097291141227</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>46.22309</v>
       </c>
       <c r="O10">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="P10">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="Q10">
         <v>478.5921430620745</v>
@@ -1066,10 +1066,10 @@
         <v>4307.32928755867</v>
       </c>
       <c r="S10">
-        <v>0.02595340398732972</v>
+        <v>0.04475175648576012</v>
       </c>
       <c r="T10">
-        <v>0.02595340398732973</v>
+        <v>0.0447517564857601</v>
       </c>
     </row>
   </sheetData>
